--- a/output/CCCM_SiteID_cleaning log_2020-01-07.xlsx
+++ b/output/CCCM_SiteID_cleaning log_2020-01-07.xlsx
@@ -1823,9 +1823,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
